--- a/Solution/FilesEditor.Tests/TestFiles/InputFiles/RunRate.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/InputFiles/RunRate.xlsx
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,16 +64,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,13 +101,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,16 +184,16 @@
   <tableColumns count="12">
     <tableColumn id="1" name="01" dataDxfId="11"/>
     <tableColumn id="2" name="02" dataDxfId="10"/>
-    <tableColumn id="3" name="03" dataDxfId="9"/>
-    <tableColumn id="4" name="04" dataDxfId="8"/>
-    <tableColumn id="5" name="05" dataDxfId="7"/>
-    <tableColumn id="6" name="06" dataDxfId="6"/>
-    <tableColumn id="7" name="07" dataDxfId="5"/>
-    <tableColumn id="8" name="08" dataDxfId="4"/>
-    <tableColumn id="9" name="09" dataDxfId="3"/>
-    <tableColumn id="10" name="10" dataDxfId="2"/>
-    <tableColumn id="11" name="11" dataDxfId="1"/>
-    <tableColumn id="12" name="12" dataDxfId="0"/>
+    <tableColumn id="4" name="04" dataDxfId="9"/>
+    <tableColumn id="5" name="05" dataDxfId="8"/>
+    <tableColumn id="6" name="06" dataDxfId="7"/>
+    <tableColumn id="3" name="03" dataDxfId="6"/>
+    <tableColumn id="8" name="08" dataDxfId="5"/>
+    <tableColumn id="9" name="09" dataDxfId="4"/>
+    <tableColumn id="10" name="10" dataDxfId="3"/>
+    <tableColumn id="11" name="11" dataDxfId="2"/>
+    <tableColumn id="12" name="12" dataDxfId="1"/>
+    <tableColumn id="7" name="07" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -456,7 +489,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,34 +502,34 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -510,31 +543,31 @@
         <v>0.2</v>
       </c>
       <c r="D2" s="1">
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="E2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="I2" s="1">
         <v>0.5</v>
       </c>
-      <c r="G2" s="1">
+      <c r="J2" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K2" s="1">
         <v>0.6</v>
       </c>
-      <c r="H2" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1.05</v>
+      <c r="L2" s="3">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
